--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H2">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I2">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J2">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.780675</v>
+        <v>0.817551</v>
       </c>
       <c r="N2">
-        <v>2.342025</v>
+        <v>2.452653</v>
       </c>
       <c r="O2">
-        <v>0.1524808473209036</v>
+        <v>0.2022370099583455</v>
       </c>
       <c r="P2">
-        <v>0.1524808473209036</v>
+        <v>0.2022370099583455</v>
       </c>
       <c r="Q2">
-        <v>117.1289098357</v>
+        <v>138.914715296007</v>
       </c>
       <c r="R2">
-        <v>1054.1601885213</v>
+        <v>1250.232437664063</v>
       </c>
       <c r="S2">
-        <v>0.06331778415147951</v>
+        <v>0.08981719612660459</v>
       </c>
       <c r="T2">
-        <v>0.0633177841514795</v>
+        <v>0.08981719612660459</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H3">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I3">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J3">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.584634</v>
       </c>
       <c r="O3">
-        <v>0.2333826622923838</v>
+        <v>0.2955761218382804</v>
       </c>
       <c r="P3">
-        <v>0.2333826622923838</v>
+        <v>0.2955761218382804</v>
       </c>
       <c r="Q3">
-        <v>179.2740353241254</v>
+        <v>203.028480404846</v>
       </c>
       <c r="R3">
-        <v>1613.466317917128</v>
+        <v>1827.256323643614</v>
       </c>
       <c r="S3">
-        <v>0.096912322402218</v>
+        <v>0.1312708218488694</v>
       </c>
       <c r="T3">
-        <v>0.09691232240221799</v>
+        <v>0.1312708218488694</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H4">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I4">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J4">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.069813</v>
+        <v>1.814372333333333</v>
       </c>
       <c r="N4">
-        <v>9.209439000000001</v>
+        <v>5.443117</v>
       </c>
       <c r="O4">
-        <v>0.5995935406625359</v>
+        <v>0.4488199948926487</v>
       </c>
       <c r="P4">
-        <v>0.5995935406625359</v>
+        <v>0.4488199948926487</v>
       </c>
       <c r="Q4">
-        <v>460.580715521132</v>
+        <v>308.2902670609564</v>
       </c>
       <c r="R4">
-        <v>4145.226439690188</v>
+        <v>2774.612403548607</v>
       </c>
       <c r="S4">
-        <v>0.248981659358127</v>
+        <v>0.1993292598378391</v>
       </c>
       <c r="T4">
-        <v>0.2489816593581269</v>
+        <v>0.1993292598378391</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H5">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I5">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J5">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.07445733333333333</v>
+        <v>0.2157376666666667</v>
       </c>
       <c r="N5">
-        <v>0.223372</v>
+        <v>0.647213</v>
       </c>
       <c r="O5">
-        <v>0.01454294972417668</v>
+        <v>0.05336687331072544</v>
       </c>
       <c r="P5">
-        <v>0.01454294972417668</v>
+        <v>0.05336687331072543</v>
       </c>
       <c r="Q5">
-        <v>11.17123807295822</v>
+        <v>36.65720737131367</v>
       </c>
       <c r="R5">
-        <v>100.541142656624</v>
+        <v>329.914866341823</v>
       </c>
       <c r="S5">
-        <v>0.006038970583782958</v>
+        <v>0.02370121536013783</v>
       </c>
       <c r="T5">
-        <v>0.006038970583782956</v>
+        <v>0.02370121536013783</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>205.146729</v>
       </c>
       <c r="I6">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J6">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.780675</v>
+        <v>0.817551</v>
       </c>
       <c r="N6">
-        <v>2.342025</v>
+        <v>2.452653</v>
       </c>
       <c r="O6">
-        <v>0.1524808473209036</v>
+        <v>0.2022370099583455</v>
       </c>
       <c r="P6">
-        <v>0.1524808473209036</v>
+        <v>0.2022370099583455</v>
       </c>
       <c r="Q6">
-        <v>53.384307554025</v>
+        <v>55.905971146893</v>
       </c>
       <c r="R6">
-        <v>480.458767986225</v>
+        <v>503.153740322037</v>
       </c>
       <c r="S6">
-        <v>0.02885859748480046</v>
+        <v>0.0361467650453668</v>
       </c>
       <c r="T6">
-        <v>0.02885859748480046</v>
+        <v>0.03614676504536679</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>205.146729</v>
       </c>
       <c r="I7">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J7">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.584634</v>
       </c>
       <c r="O7">
-        <v>0.2333826622923838</v>
+        <v>0.2955761218382804</v>
       </c>
       <c r="P7">
-        <v>0.2333826622923838</v>
+        <v>0.2955761218382804</v>
       </c>
       <c r="Q7">
         <v>81.70843775135401</v>
@@ -883,10 +883,10 @@
         <v>735.375939762186</v>
       </c>
       <c r="S7">
-        <v>0.04417011335759876</v>
+        <v>0.05282970031701727</v>
       </c>
       <c r="T7">
-        <v>0.04417011335759875</v>
+        <v>0.05282970031701727</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>205.146729</v>
       </c>
       <c r="I8">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J8">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.069813</v>
+        <v>1.814372333333333</v>
       </c>
       <c r="N8">
-        <v>9.209439000000001</v>
+        <v>5.443117</v>
       </c>
       <c r="O8">
-        <v>0.5995935406625359</v>
+        <v>0.4488199948926487</v>
       </c>
       <c r="P8">
-        <v>0.5995935406625359</v>
+        <v>0.4488199948926487</v>
       </c>
       <c r="Q8">
-        <v>209.920698530559</v>
+        <v>124.070849790477</v>
       </c>
       <c r="R8">
-        <v>1889.286286775031</v>
+        <v>1116.637648114293</v>
       </c>
       <c r="S8">
-        <v>0.1134793578897848</v>
+        <v>0.08021969325193648</v>
       </c>
       <c r="T8">
-        <v>0.1134793578897848</v>
+        <v>0.08021969325193648</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>205.146729</v>
       </c>
       <c r="I9">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J9">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.07445733333333333</v>
+        <v>0.2157376666666667</v>
       </c>
       <c r="N9">
-        <v>0.223372</v>
+        <v>0.647213</v>
       </c>
       <c r="O9">
-        <v>0.01454294972417668</v>
+        <v>0.05336687331072544</v>
       </c>
       <c r="P9">
-        <v>0.01454294972417668</v>
+        <v>0.05336687331072543</v>
       </c>
       <c r="Q9">
-        <v>5.091559461132</v>
+        <v>14.752625546253</v>
       </c>
       <c r="R9">
-        <v>45.824035150188</v>
+        <v>132.773629916277</v>
       </c>
       <c r="S9">
-        <v>0.002752405562440559</v>
+        <v>0.00953851043963699</v>
       </c>
       <c r="T9">
-        <v>0.002752405562440558</v>
+        <v>0.009538510439636987</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H10">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I10">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J10">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.780675</v>
+        <v>0.817551</v>
       </c>
       <c r="N10">
-        <v>2.342025</v>
+        <v>2.452653</v>
       </c>
       <c r="O10">
-        <v>0.1524808473209036</v>
+        <v>0.2022370099583455</v>
       </c>
       <c r="P10">
-        <v>0.1524808473209036</v>
+        <v>0.2022370099583455</v>
       </c>
       <c r="Q10">
-        <v>29.7889498095</v>
+        <v>43.554730301334</v>
       </c>
       <c r="R10">
-        <v>268.1005482855</v>
+        <v>391.992572712006</v>
       </c>
       <c r="S10">
-        <v>0.01610337103609145</v>
+        <v>0.02816090250324063</v>
       </c>
       <c r="T10">
-        <v>0.01610337103609144</v>
+        <v>0.02816090250324063</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H11">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I11">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J11">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.584634</v>
       </c>
       <c r="O11">
-        <v>0.2333826622923838</v>
+        <v>0.2955761218382804</v>
       </c>
       <c r="P11">
-        <v>0.2333826622923838</v>
+        <v>0.2955761218382804</v>
       </c>
       <c r="Q11">
-        <v>45.59408303132001</v>
+        <v>63.65668812465199</v>
       </c>
       <c r="R11">
-        <v>410.34674728188</v>
+        <v>572.910193121868</v>
       </c>
       <c r="S11">
-        <v>0.02464734207815401</v>
+        <v>0.04115809638942055</v>
       </c>
       <c r="T11">
-        <v>0.024647342078154</v>
+        <v>0.04115809638942055</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H12">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I12">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J12">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.069813</v>
+        <v>1.814372333333333</v>
       </c>
       <c r="N12">
-        <v>9.209439000000001</v>
+        <v>5.443117</v>
       </c>
       <c r="O12">
-        <v>0.5995935406625359</v>
+        <v>0.4488199948926487</v>
       </c>
       <c r="P12">
-        <v>0.5995935406625359</v>
+        <v>0.4488199948926487</v>
       </c>
       <c r="Q12">
-        <v>117.13774026522</v>
+        <v>96.66002199805932</v>
       </c>
       <c r="R12">
-        <v>1054.23966238698</v>
+        <v>869.9401979825338</v>
       </c>
       <c r="S12">
-        <v>0.0633225577230179</v>
+        <v>0.06249685020699283</v>
       </c>
       <c r="T12">
-        <v>0.06332255772301788</v>
+        <v>0.06249685020699285</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H13">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I13">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J13">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.07445733333333333</v>
+        <v>0.2157376666666667</v>
       </c>
       <c r="N13">
-        <v>0.223372</v>
+        <v>0.647213</v>
       </c>
       <c r="O13">
-        <v>0.01454294972417668</v>
+        <v>0.05336687331072544</v>
       </c>
       <c r="P13">
-        <v>0.01454294972417668</v>
+        <v>0.05336687331072543</v>
       </c>
       <c r="Q13">
-        <v>2.841138457893333</v>
+        <v>11.49334523168067</v>
       </c>
       <c r="R13">
-        <v>25.57024612104</v>
+        <v>103.440107085126</v>
       </c>
       <c r="S13">
-        <v>0.001535868402375644</v>
+        <v>0.007431178479723743</v>
       </c>
       <c r="T13">
-        <v>0.001535868402375644</v>
+        <v>0.007431178479723743</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H14">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I14">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J14">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.780675</v>
+        <v>0.817551</v>
       </c>
       <c r="N14">
-        <v>2.342025</v>
+        <v>2.452653</v>
       </c>
       <c r="O14">
-        <v>0.1524808473209036</v>
+        <v>0.2022370099583455</v>
       </c>
       <c r="P14">
-        <v>0.1524808473209036</v>
+        <v>0.2022370099583455</v>
       </c>
       <c r="Q14">
-        <v>81.76574874037502</v>
+        <v>74.41208801241601</v>
       </c>
       <c r="R14">
-        <v>735.8917386633751</v>
+        <v>669.7087921117441</v>
       </c>
       <c r="S14">
-        <v>0.04420109464853223</v>
+        <v>0.04811214628313348</v>
       </c>
       <c r="T14">
-        <v>0.04420109464853222</v>
+        <v>0.04811214628313348</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H15">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I15">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J15">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.584634</v>
       </c>
       <c r="O15">
-        <v>0.2333826622923838</v>
+        <v>0.2955761218382804</v>
       </c>
       <c r="P15">
-        <v>0.2333826622923838</v>
+        <v>0.2955761218382804</v>
       </c>
       <c r="Q15">
-        <v>125.14822983111</v>
+        <v>108.7557435561813</v>
       </c>
       <c r="R15">
-        <v>1126.33406847999</v>
+        <v>978.801692005632</v>
       </c>
       <c r="S15">
-        <v>0.06765288445441305</v>
+        <v>0.07031750328297315</v>
       </c>
       <c r="T15">
-        <v>0.06765288445441302</v>
+        <v>0.07031750328297313</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H16">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I16">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J16">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.069813</v>
+        <v>1.814372333333333</v>
       </c>
       <c r="N16">
-        <v>9.209439000000001</v>
+        <v>5.443117</v>
       </c>
       <c r="O16">
-        <v>0.5995935406625359</v>
+        <v>0.4488199948926487</v>
       </c>
       <c r="P16">
-        <v>0.5995935406625359</v>
+        <v>0.4488199948926487</v>
       </c>
       <c r="Q16">
-        <v>321.5237562851851</v>
+        <v>165.1410538979129</v>
       </c>
       <c r="R16">
-        <v>2893.713806566666</v>
+        <v>1486.269485081216</v>
       </c>
       <c r="S16">
-        <v>0.1738099656916062</v>
+        <v>0.1067741915958803</v>
       </c>
       <c r="T16">
-        <v>0.1738099656916062</v>
+        <v>0.1067741915958803</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H17">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I17">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J17">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.07445733333333333</v>
+        <v>0.2157376666666667</v>
       </c>
       <c r="N17">
-        <v>0.223372</v>
+        <v>0.647213</v>
       </c>
       <c r="O17">
-        <v>0.01454294972417668</v>
+        <v>0.05336687331072544</v>
       </c>
       <c r="P17">
-        <v>0.01454294972417668</v>
+        <v>0.05336687331072543</v>
       </c>
       <c r="Q17">
-        <v>7.798455963380001</v>
+        <v>19.63607192651378</v>
       </c>
       <c r="R17">
-        <v>70.18610367042001</v>
+        <v>176.724647338624</v>
       </c>
       <c r="S17">
-        <v>0.00421570517557752</v>
+        <v>0.01269596903122687</v>
       </c>
       <c r="T17">
-        <v>0.004215705175577519</v>
+        <v>0.01269596903122687</v>
       </c>
     </row>
   </sheetData>
